--- a/Future_Demand_2025_with_Gravity_Model.xlsx
+++ b/Future_Demand_2025_with_Gravity_Model.xlsx
@@ -550,61 +550,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1874</v>
+        <v>1194</v>
       </c>
       <c r="D2" t="n">
-        <v>1178</v>
+        <v>750</v>
       </c>
       <c r="E2" t="n">
-        <v>513</v>
+        <v>327</v>
       </c>
       <c r="F2" t="n">
-        <v>373</v>
+        <v>237</v>
       </c>
       <c r="G2" t="n">
-        <v>293</v>
+        <v>187</v>
       </c>
       <c r="H2" t="n">
-        <v>457</v>
+        <v>291</v>
       </c>
       <c r="I2" t="n">
-        <v>313</v>
+        <v>199</v>
       </c>
       <c r="J2" t="n">
-        <v>942</v>
+        <v>600</v>
       </c>
       <c r="K2" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="L2" t="n">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="M2" t="n">
-        <v>715</v>
+        <v>456</v>
       </c>
       <c r="N2" t="n">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="O2" t="n">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="P2" t="n">
-        <v>509</v>
+        <v>324</v>
       </c>
       <c r="Q2" t="n">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="R2" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="S2" t="n">
+        <v>44</v>
+      </c>
+      <c r="T2" t="n">
         <v>69</v>
       </c>
-      <c r="T2" t="n">
-        <v>109</v>
-      </c>
       <c r="U2" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -614,64 +614,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1874</v>
+        <v>1194</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>513</v>
+        <v>327</v>
       </c>
       <c r="E3" t="n">
-        <v>399</v>
+        <v>254</v>
       </c>
       <c r="F3" t="n">
-        <v>218</v>
+        <v>139</v>
       </c>
       <c r="G3" t="n">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="H3" t="n">
-        <v>331</v>
+        <v>211</v>
       </c>
       <c r="I3" t="n">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="J3" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="K3" t="n">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="L3" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="M3" t="n">
-        <v>393</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="O3" t="n">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="P3" t="n">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="Q3" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="R3" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="S3" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="T3" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="U3" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -681,64 +681,64 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1178</v>
+        <v>750</v>
       </c>
       <c r="C4" t="n">
-        <v>513</v>
+        <v>327</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>353</v>
+        <v>225</v>
       </c>
       <c r="F4" t="n">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="G4" t="n">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="H4" t="n">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="I4" t="n">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="J4" t="n">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="K4" t="n">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="L4" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M4" t="n">
-        <v>441</v>
+        <v>281</v>
       </c>
       <c r="N4" t="n">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="O4" t="n">
+        <v>50</v>
+      </c>
+      <c r="P4" t="n">
         <v>79</v>
       </c>
-      <c r="P4" t="n">
-        <v>125</v>
-      </c>
       <c r="Q4" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="R4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S4" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="T4" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="U4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -748,64 +748,64 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>513</v>
+        <v>327</v>
       </c>
       <c r="C5" t="n">
-        <v>399</v>
+        <v>254</v>
       </c>
       <c r="D5" t="n">
-        <v>353</v>
+        <v>225</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="G5" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="H5" t="n">
-        <v>592</v>
+        <v>377</v>
       </c>
       <c r="I5" t="n">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="J5" t="n">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="K5" t="n">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="L5" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M5" t="n">
-        <v>582</v>
+        <v>371</v>
       </c>
       <c r="N5" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="O5" t="n">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="P5" t="n">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="Q5" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="R5" t="n">
+        <v>7</v>
+      </c>
+      <c r="S5" t="n">
         <v>10</v>
       </c>
-      <c r="S5" t="n">
-        <v>15</v>
-      </c>
       <c r="T5" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="U5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -815,64 +815,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373</v>
+        <v>237</v>
       </c>
       <c r="C6" t="n">
-        <v>218</v>
+        <v>139</v>
       </c>
       <c r="D6" t="n">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="E6" t="n">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>440</v>
+        <v>280</v>
       </c>
       <c r="H6" t="n">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="I6" t="n">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="J6" t="n">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="K6" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="L6" t="n">
-        <v>202</v>
+        <v>128</v>
       </c>
       <c r="M6" t="n">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="N6" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="O6" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="P6" t="n">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="Q6" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="R6" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="S6" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="T6" t="n">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="U6" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -882,64 +882,64 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>293</v>
+        <v>187</v>
       </c>
       <c r="C7" t="n">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="D7" t="n">
+        <v>55</v>
+      </c>
+      <c r="E7" t="n">
+        <v>59</v>
+      </c>
+      <c r="F7" t="n">
+        <v>280</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>84</v>
+      </c>
+      <c r="I7" t="n">
+        <v>138</v>
+      </c>
+      <c r="J7" t="n">
+        <v>45</v>
+      </c>
+      <c r="K7" t="n">
+        <v>27</v>
+      </c>
+      <c r="L7" t="n">
+        <v>39</v>
+      </c>
+      <c r="M7" t="n">
         <v>87</v>
       </c>
-      <c r="E7" t="n">
-        <v>92</v>
-      </c>
-      <c r="F7" t="n">
-        <v>440</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>131</v>
-      </c>
-      <c r="I7" t="n">
-        <v>216</v>
-      </c>
-      <c r="J7" t="n">
-        <v>70</v>
-      </c>
-      <c r="K7" t="n">
-        <v>42</v>
-      </c>
-      <c r="L7" t="n">
-        <v>61</v>
-      </c>
-      <c r="M7" t="n">
-        <v>137</v>
-      </c>
       <c r="N7" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="O7" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="P7" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q7" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="R7" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S7" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="T7" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="U7" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -949,64 +949,64 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>457</v>
+        <v>291</v>
       </c>
       <c r="C8" t="n">
-        <v>331</v>
+        <v>211</v>
       </c>
       <c r="D8" t="n">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="E8" t="n">
-        <v>592</v>
+        <v>377</v>
       </c>
       <c r="F8" t="n">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="G8" t="n">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>317</v>
+        <v>202</v>
       </c>
       <c r="J8" t="n">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="K8" t="n">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="L8" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M8" t="n">
-        <v>723</v>
+        <v>461</v>
       </c>
       <c r="N8" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="O8" t="n">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="P8" t="n">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="Q8" t="n">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="R8" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="S8" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="T8" t="n">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="U8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1016,64 +1016,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>313</v>
+        <v>199</v>
       </c>
       <c r="C9" t="n">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="D9" t="n">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="E9" t="n">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="G9" t="n">
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="H9" t="n">
-        <v>317</v>
+        <v>202</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="K9" t="n">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="L9" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M9" t="n">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="N9" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="O9" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="P9" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="Q9" t="n">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="R9" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="S9" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="T9" t="n">
-        <v>362</v>
+        <v>230</v>
       </c>
       <c r="U9" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1083,64 +1083,64 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>942</v>
+        <v>600</v>
       </c>
       <c r="C10" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="D10" t="n">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="E10" t="n">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="F10" t="n">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="G10" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="H10" t="n">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="I10" t="n">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="L10" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M10" t="n">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="N10" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="O10" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="P10" t="n">
-        <v>307</v>
+        <v>196</v>
       </c>
       <c r="Q10" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="R10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S10" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="T10" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="U10" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1150,64 +1150,64 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="C11" t="n">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="D11" t="n">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="E11" t="n">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="F11" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G11" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H11" t="n">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="I11" t="n">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="J11" t="n">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M11" t="n">
-        <v>299</v>
+        <v>190</v>
       </c>
       <c r="N11" t="n">
-        <v>323</v>
+        <v>206</v>
       </c>
       <c r="O11" t="n">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="P11" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="Q11" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="R11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S11" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="T11" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="U11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1217,64 +1217,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="C12" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D12" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E12" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F12" t="n">
-        <v>202</v>
+        <v>128</v>
       </c>
       <c r="G12" t="n">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="H12" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="I12" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J12" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="K12" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O12" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="P12" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="n">
         <v>11</v>
       </c>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>7</v>
-      </c>
-      <c r="T12" t="n">
-        <v>17</v>
-      </c>
       <c r="U12" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -1284,64 +1284,64 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>715</v>
+        <v>456</v>
       </c>
       <c r="C13" t="n">
-        <v>393</v>
+        <v>250</v>
       </c>
       <c r="D13" t="n">
-        <v>441</v>
+        <v>281</v>
       </c>
       <c r="E13" t="n">
-        <v>582</v>
+        <v>371</v>
       </c>
       <c r="F13" t="n">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="G13" t="n">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="H13" t="n">
-        <v>723</v>
+        <v>461</v>
       </c>
       <c r="I13" t="n">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="J13" t="n">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="K13" t="n">
-        <v>299</v>
+        <v>190</v>
       </c>
       <c r="L13" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="O13" t="n">
-        <v>418</v>
+        <v>266</v>
       </c>
       <c r="P13" t="n">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="Q13" t="n">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="R13" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="S13" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="T13" t="n">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="U13" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -1351,64 +1351,64 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="C14" t="n">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D14" t="n">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E14" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F14" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H14" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="I14" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="J14" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="K14" t="n">
-        <v>323</v>
+        <v>206</v>
       </c>
       <c r="L14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M14" t="n">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="P14" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="Q14" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="R14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S14" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T14" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1418,64 +1418,64 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="C15" t="n">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="D15" t="n">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="F15" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="H15" t="n">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="I15" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="J15" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K15" t="n">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="L15" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M15" t="n">
-        <v>418</v>
+        <v>266</v>
       </c>
       <c r="N15" t="n">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="Q15" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="R15" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="S15" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T15" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="U15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1485,64 +1485,64 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>509</v>
+        <v>324</v>
       </c>
       <c r="C16" t="n">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="D16" t="n">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="E16" t="n">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="F16" t="n">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="G16" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="H16" t="n">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="I16" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J16" t="n">
-        <v>307</v>
+        <v>196</v>
       </c>
       <c r="K16" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="L16" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M16" t="n">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="N16" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="O16" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>15</v>
+      </c>
+      <c r="T16" t="n">
+        <v>11</v>
+      </c>
+      <c r="U16" t="n">
         <v>5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>23</v>
-      </c>
-      <c r="T16" t="n">
-        <v>18</v>
-      </c>
-      <c r="U16" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1552,64 +1552,64 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="C17" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D17" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E17" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F17" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G17" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H17" t="n">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="I17" t="n">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="J17" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="K17" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="L17" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="N17" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="O17" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="P17" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="S17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T17" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1619,64 +1619,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
+        <v>9</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8</v>
+      </c>
+      <c r="G18" t="n">
+        <v>8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>11</v>
+      </c>
+      <c r="I18" t="n">
+        <v>20</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>6</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
         <v>14</v>
       </c>
-      <c r="D18" t="n">
-        <v>9</v>
-      </c>
-      <c r="E18" t="n">
-        <v>10</v>
-      </c>
-      <c r="F18" t="n">
-        <v>13</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="N18" t="n">
+        <v>4</v>
+      </c>
+      <c r="O18" t="n">
+        <v>7</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>14</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="n">
         <v>12</v>
       </c>
-      <c r="H18" t="n">
-        <v>18</v>
-      </c>
-      <c r="I18" t="n">
-        <v>31</v>
-      </c>
-      <c r="J18" t="n">
-        <v>7</v>
-      </c>
-      <c r="K18" t="n">
-        <v>9</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4</v>
-      </c>
-      <c r="M18" t="n">
-        <v>23</v>
-      </c>
-      <c r="N18" t="n">
-        <v>7</v>
-      </c>
-      <c r="O18" t="n">
-        <v>11</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>22</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2</v>
-      </c>
-      <c r="T18" t="n">
-        <v>19</v>
-      </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1686,64 +1686,64 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C19" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D19" t="n">
+        <v>13</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="n">
+        <v>12</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8</v>
+      </c>
+      <c r="H19" t="n">
+        <v>12</v>
+      </c>
+      <c r="I19" t="n">
+        <v>11</v>
+      </c>
+      <c r="J19" t="n">
         <v>20</v>
       </c>
-      <c r="E19" t="n">
+      <c r="K19" t="n">
+        <v>13</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4</v>
+      </c>
+      <c r="M19" t="n">
+        <v>21</v>
+      </c>
+      <c r="N19" t="n">
+        <v>9</v>
+      </c>
+      <c r="O19" t="n">
+        <v>7</v>
+      </c>
+      <c r="P19" t="n">
         <v>15</v>
       </c>
-      <c r="F19" t="n">
-        <v>20</v>
-      </c>
-      <c r="G19" t="n">
-        <v>13</v>
-      </c>
-      <c r="H19" t="n">
-        <v>18</v>
-      </c>
-      <c r="I19" t="n">
-        <v>17</v>
-      </c>
-      <c r="J19" t="n">
-        <v>31</v>
-      </c>
-      <c r="K19" t="n">
-        <v>21</v>
-      </c>
-      <c r="L19" t="n">
-        <v>7</v>
-      </c>
-      <c r="M19" t="n">
-        <v>33</v>
-      </c>
-      <c r="N19" t="n">
-        <v>14</v>
-      </c>
-      <c r="O19" t="n">
-        <v>11</v>
-      </c>
-      <c r="P19" t="n">
-        <v>23</v>
-      </c>
       <c r="Q19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>4</v>
+      </c>
+      <c r="U19" t="n">
         <v>2</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>7</v>
-      </c>
-      <c r="U19" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1753,64 +1753,64 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="C20" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="D20" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E20" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F20" t="n">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="G20" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H20" t="n">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="I20" t="n">
-        <v>362</v>
+        <v>230</v>
       </c>
       <c r="J20" t="n">
+        <v>18</v>
+      </c>
+      <c r="K20" t="n">
+        <v>17</v>
+      </c>
+      <c r="L20" t="n">
+        <v>11</v>
+      </c>
+      <c r="M20" t="n">
+        <v>55</v>
+      </c>
+      <c r="N20" t="n">
+        <v>12</v>
+      </c>
+      <c r="O20" t="n">
+        <v>21</v>
+      </c>
+      <c r="P20" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q20" t="n">
         <v>28</v>
       </c>
-      <c r="K20" t="n">
-        <v>27</v>
-      </c>
-      <c r="L20" t="n">
-        <v>17</v>
-      </c>
-      <c r="M20" t="n">
-        <v>86</v>
-      </c>
-      <c r="N20" t="n">
-        <v>19</v>
-      </c>
-      <c r="O20" t="n">
-        <v>33</v>
-      </c>
-      <c r="P20" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>44</v>
-      </c>
       <c r="R20" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="S20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1820,61 +1820,61 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D21" t="n">
+        <v>7</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>23</v>
+      </c>
+      <c r="G21" t="n">
+        <v>11</v>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+      <c r="I21" t="n">
         <v>10</v>
       </c>
-      <c r="E21" t="n">
-        <v>9</v>
-      </c>
-      <c r="F21" t="n">
-        <v>36</v>
-      </c>
-      <c r="G21" t="n">
-        <v>18</v>
-      </c>
-      <c r="H21" t="n">
-        <v>12</v>
-      </c>
-      <c r="I21" t="n">
-        <v>16</v>
-      </c>
       <c r="J21" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L21" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M21" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N21" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" t="n">
+        <v>4</v>
+      </c>
+      <c r="P21" t="n">
         <v>5</v>
       </c>
-      <c r="O21" t="n">
-        <v>6</v>
-      </c>
-      <c r="P21" t="n">
-        <v>7</v>
-      </c>
       <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="n">
         <v>5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4</v>
-      </c>
-      <c r="T21" t="n">
-        <v>8</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
